--- a/biology/Botanique/Pyrrosia/Pyrrosia.xlsx
+++ b/biology/Botanique/Pyrrosia/Pyrrosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pyrrosies sont des fougères pérennes, au feuillage persistant, au rhizome long et traçant.
 Les frondes sont simples, monomorphiques bien qu'elles puissent être fertiles ou stériles (quelques espèces peuvent disposer de frondes légèrement dimorphiques). Elles sont coriaces et couvertes de poils en étoile, une des caractéristiques du genre.
@@ -550,7 +564,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pyrrosies sont des fougères épiphytes (qui poussent sur les arbres) ou épipetriques (qui poussent sur les rochers). Leur aire de répartition naturelle s'étend de Madagascar à l'Asie orientale (principalement la Chine), l'Australie et l'Océanie.
 L'usage ornemental de certaines espèces ont répandu ce genre dans beaucoup de régions à climat tempéré.
@@ -582,7 +598,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fougères sont un peu diffusées en plantes ornementales, pour leur bonne rusticité.
 La pharmacopée chinoise utilise les feuilles séchées de quelques espèces pour des affections des bronches et urinaires (site de médecine chinoise).
@@ -614,17 +632,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces est issue des index IPNI (The International Plant Names Index), du jardin botanique du Missouri (Tropicos) et The Plant List à la date de novembre 2012, avec une recherche bibliographique sur la bibliothèque numérique Biodiversity Heritage Library, dans l'ouvrage de base de Peter Hans Hovenkam, dans les ouvrages de William Jackson Hooker (Species filicum) ainsi que celui de Christenses (Index filicum) qui présentent une aide préciseuses pour les espèces complètement non indexées (voire des genres entiers comme Antrhophyum) et, pour les espèces concernées, l'index Catalogue of life, China[1]. Les espèces conservées dans le genre sont mises en caractères gras.
-Pyrrosia abbreviata (Zoll. &amp; Moritzi) Tagawa (1973) - synonymes : Cyclophorus abreviatum (Zoll. &amp; Moritzi) C.Chr., Lemmaphyllum abbreviatum (Zoll. &amp; Moritzi) Kuhn &amp; C.Chr.,Niphobolus abbreviatus Zoll. &amp; Mor., Sphaerostichum abreviatum (Zoll. &amp; Moritzi) C.Presl[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces est issue des index IPNI (The International Plant Names Index), du jardin botanique du Missouri (Tropicos) et The Plant List à la date de novembre 2012, avec une recherche bibliographique sur la bibliothèque numérique Biodiversity Heritage Library, dans l'ouvrage de base de Peter Hans Hovenkam, dans les ouvrages de William Jackson Hooker (Species filicum) ainsi que celui de Christenses (Index filicum) qui présentent une aide préciseuses pour les espèces complètement non indexées (voire des genres entiers comme Antrhophyum) et, pour les espèces concernées, l'index Catalogue of life, China. Les espèces conservées dans le genre sont mises en caractères gras.
+Pyrrosia abbreviata (Zoll. &amp; Moritzi) Tagawa (1973) - synonymes : Cyclophorus abreviatum (Zoll. &amp; Moritzi) C.Chr., Lemmaphyllum abbreviatum (Zoll. &amp; Moritzi) Kuhn &amp; C.Chr.,Niphobolus abbreviatus Zoll. &amp; Mor., Sphaerostichum abreviatum (Zoll. &amp; Moritzi) C.Presl.
 Pyrrosia acrostichoides (G.Forst.) Ching (1935) : voir Pyrrosia longifolia (Burm.f.) C.V.Morton
-Pyrrosia adnascens (Sw.) Ching (1935) - synonymes : Craspedaria pertusa (Roxb. ex Hook.) Link, Cyclophorus adnascens (Sw.) C.Chr., Cyclophorus bamleri Rosenst., Cyclophorus pustulosus Christ, Cyclophorus stellatus Copel., Niphobolus carnosus Blume, Niphobolus caudatus Kaulf., Niphobolus chamissonianus C.Presl, Niphobolus elongatus Blume, Niphobolus spathulifer Bory, Polypodium adnascens Sw., Polypodium caudatum (Kaulf.) Mett., Polypodium pachydermum Baker, Polypodium pertusum Roxb. ex Hook., Pyrrosia caudata (Kaulf.) Ching, Pyrrosia dimorpha (Copel.) Parris, Pyrrosia pachyderma (Baker) Ching, Pyrrosia stellata (Copel.) Parris[3]
+Pyrrosia adnascens (Sw.) Ching (1935) - synonymes : Craspedaria pertusa (Roxb. ex Hook.) Link, Cyclophorus adnascens (Sw.) C.Chr., Cyclophorus bamleri Rosenst., Cyclophorus pustulosus Christ, Cyclophorus stellatus Copel., Niphobolus carnosus Blume, Niphobolus caudatus Kaulf., Niphobolus chamissonianus C.Presl, Niphobolus elongatus Blume, Niphobolus spathulifer Bory, Polypodium adnascens Sw., Polypodium caudatum (Kaulf.) Mett., Polypodium pachydermum Baker, Polypodium pertusum Roxb. ex Hook., Pyrrosia caudata (Kaulf.) Ching, Pyrrosia dimorpha (Copel.) Parris, Pyrrosia pachyderma (Baker) Ching, Pyrrosia stellata (Copel.) Parris
 Pyrrosia adnascens fo. calcicola K.H.Shing (1997)
-Pyrrosia africana (Kunze) F.Ballard (1937) - synonymes : Cyclophorus africanus (Kunze) C.Chr., Gyrosorium africanum (Kunze) C.Presl, Niphobolus africanus Kunze, Niphobolus africanus var. major Kunze, Niphobolus africanus var. minor Kunze, Polypodium africanum (Kunze) Mett. (non Desv.)[4]
+Pyrrosia africana (Kunze) F.Ballard (1937) - synonymes : Cyclophorus africanus (Kunze) C.Chr., Gyrosorium africanum (Kunze) C.Presl, Niphobolus africanus Kunze, Niphobolus africanus var. major Kunze, Niphobolus africanus var. minor Kunze, Polypodium africanum (Kunze) Mett. (non Desv.)
 Pyrrosia aglaophylla (Copel.) Copel. (1960) - synonyme : Cyclophorus aglaophyllus Copel.
 Pyrrosia albicans (Blume) Ching (1935) - synonymes : Cyclophorus albicans (Blume) C.Presl, Niphobolus albicans Blume, Polypodium albicans (Blume) Mett.
-Pyrrosia angustata (Sw.) Ching (1935) - synonymes : Cyclophorus angustatus (Sw.) Desv., Gyrosorium angustatum (Sw.) C.Presl, Niphobolus angustatus (Sw.) Spreng., Niphobolus sphaerocephalus Hook. &amp; Grev., Niphopsis angustatum (Sw.) J.Sm., Pleopeltis angustata (Sw.) C.Presl, Polypodium angustatum Sw., Polypodium coriaceum Roxb., Polypodium sphaerocephalum (Hook. &amp; Grev.) Wall. ex Mett., Phymatodes sphaerocephala (Hook. &amp; Grev.) C.Presl[5]
+Pyrrosia angustata (Sw.) Ching (1935) - synonymes : Cyclophorus angustatus (Sw.) Desv., Gyrosorium angustatum (Sw.) C.Presl, Niphobolus angustatus (Sw.) Spreng., Niphobolus sphaerocephalus Hook. &amp; Grev., Niphopsis angustatum (Sw.) J.Sm., Pleopeltis angustata (Sw.) C.Presl, Polypodium angustatum Sw., Polypodium coriaceum Roxb., Polypodium sphaerocephalum (Hook. &amp; Grev.) Wall. ex Mett., Phymatodes sphaerocephala (Hook. &amp; Grev.) C.Presl
 Pyrrosia angustissima (Giesenh. ex Diels) Tagawa &amp; K.Iwats. (1975) - synonymes : Cyclophorus sasakii Hayata, Cyclophorus taenioides C.Chr., Niphobolus angustissimus Giesenh ex Diels, Polypodium angustissimum Baker, Saxiglossum angustissimum (Giesenh. ex Diels) Ching, Saxiglossum sasakii (Hayata) Tagawa, Saxiglossum taeniodes (C.Chr.) Ching
 Pyrrosia arunachalensis Sarn.Singh &amp; Panigrahi (2005)
 Pyrrosia assimilis (Baker) Ching (1935) - synonymes : Cyclophorus assimilis (Baker) C.Chr., Cyclophorus assimilis var. mollifrons Hand.-Mazz., Niphobolus assimilis (Baker) Diels, Polypodium assimile Baker
@@ -650,7 +670,7 @@
 Pyrrosia confluens (R.Br.) Ching (1935) - synonymes : Cyclophorus confluens (R.Br.) C.Chr., Cyclophorus confluens fo. lobatus (F.M.Bailey) Domin, Niphobolus confluens (R.Br.) Spreng., Polypodium confluens R.Br., Polypodium confluens forma liberatum F.M.Bailey, Polypodium confluens var. lobatum F.M.Bailey
 Pyrrosia confluens var. dielsii (C.Chr.) Hovenkamp (1984) - synonymes : Cyclosorus dielsii C.Chr., Pyrrosia dielsii (C.Chr.) Tindale
 Pyrrosia cornuta (Copel.) Tagawa (1949) : voir Pyrrosia lanceolata (L.) Farw.
-Pyrrosia costata (Wall. ex C.Presl) Tagawa &amp; K.Iwats. (1967) - synonymes : Apalophlebia costata (Wall. ex C.Presl) C.Presl, Apalophlebia venosa (Blume) C.Presl[6], Cyclophorus beddomeanus (Giesenh.) C.Chr., Nephrodium costatum Bedd., Niphobolus beddomeanus Giesenh., Niphobolus costatus Wall. ex C.Presl, Niphobolus venosus Blume[7], Polypodium costatum (Wall. ex C.Presl) Mett., Pyrrosia beddomeana (Giesenh.) Ching
+Pyrrosia costata (Wall. ex C.Presl) Tagawa &amp; K.Iwats. (1967) - synonymes : Apalophlebia costata (Wall. ex C.Presl) C.Presl, Apalophlebia venosa (Blume) C.Presl, Cyclophorus beddomeanus (Giesenh.) C.Chr., Nephrodium costatum Bedd., Niphobolus beddomeanus Giesenh., Niphobolus costatus Wall. ex C.Presl, Niphobolus venosus Blume, Polypodium costatum (Wall. ex C.Presl) Mett., Pyrrosia beddomeana (Giesenh.) Ching
 Pyrrosia davidii (Giesenh.) Ching (1965) : voir Pyrrosia porosa (C.Presl) Hovenkamp
 Pyrrosia dielsii (C.Chr.) Tindale (1961) : voir Pyrrosia confluens var. dielsii (C.Chr.) Hovenkamp
 Pyrrosia dimorpha X.H.Guo &amp; S.B.Zhou (2005) : homonyme (nom illégal) mais espèce nouvelle à renommer (Pyrrosia guo-zhouiana par exemple)
@@ -665,22 +685,22 @@
 Pyrrosia fengiana Ching (1941) - synonyme : Pyrrosia latifolia Ching &amp; S.K.Wu
 Pyrrosia fissa (Blume) Mehra (1939) : voir Pyrrosia longifolia (Burm.f.) C.V.Morton
 Pyrrosia floccigera (Blume) Ching (1935) - synonymes : Cyclophorus annamensis (Christ) C.Chr., Cyclophorus flocciger (Blume) C.Presl, Niphobolus annamensis Christ, Niphobolus flocciger Blume, Niphobolus loriformis Kunze, Polypodium floccigerum (Blume) Mett., Polypodium floccigerum var. latifolia Mett., Polypodium floccigerum var. loriforme Mett.
-Pyrrosia flocculosa (D.Don) Ching (1935) - synonymes : Apalophlebia flocculosa (D.Don) C.Presl, Cyclophorus flocculosus (D.Don) C.Chr., Niphobolus detergibilis (Hook.) Bedd., Niphobolus flocculosus (D.Don) Spreng., Polypodium detergibile Hook.[8], Polypodium flocculosum D.Don
+Pyrrosia flocculosa (D.Don) Ching (1935) - synonymes : Apalophlebia flocculosa (D.Don) C.Presl, Cyclophorus flocculosus (D.Don) C.Chr., Niphobolus detergibilis (Hook.) Bedd., Niphobolus flocculosus (D.Don) Spreng., Polypodium detergibile Hook., Polypodium flocculosum D.Don
 Pyrrosia foveolata (Alston) C.V.Morton (1973) - synonyme : Cyclophorus foveolatus Alston
 Pyrrosia foveolata var. lauterbachii (Christ) Hovenkamp (1984) - synonymes : Cyclophorus lauterbachii (Christ) C.Chr., Niphobolus lauterbachii Christ, Pyrossia lauterbachii (Christ) Ching
 Pyrrosia fuohaiensis Ching &amp; K.H.Shing (1997)
 Pyrrosia gardneri (Mett.) Sledge (1960) - synonymes : Cyclophorus gardneri (Mett.) C.Chr., Niphobolus gardneri (Mett.) J.Sm., Polypodium gardneri Mett.
 Pyrrosia gralla (Giesenh.) Ching (1935) : voir Pyrrosia porosa (C.Presl) Hovenkamp
 Pyrrosia grandissima (Hayata) Ching (1935) : voir Pyrrosia sheareri (Baker) Ching
-Pyrrosia hastata (Thunb.) Ching (1935) - synonymes : Acrostichum hastatum Houtt.[9], Acrostichum hastatum Thunb., Cyclophorus hastatus (Houtt.) C.Chr., Niphobolus hastatus (Houtt.) Kunze, Niphobolus tricuspis (Sw.) J. Sm., Polycampium hastatum (Thunb.) C.Presl, Polypodium tricuspe Sw., Pyrrosia tricuspis (Sw.) Tagawa[10]
-Pyrrosia heteractis (Mett. ex Kuhn) Ching (1935) - synonymes : Niphobolus heteractis (Mett. ex Kuhn) J.Sm., Polypodium heteractis Mett. ex Kuhn, Pyrrosia lingua var. heteracta (Mett. ex Kuhn) Hovenkamp[11]
+Pyrrosia hastata (Thunb.) Ching (1935) - synonymes : Acrostichum hastatum Houtt., Acrostichum hastatum Thunb., Cyclophorus hastatus (Houtt.) C.Chr., Niphobolus hastatus (Houtt.) Kunze, Niphobolus tricuspis (Sw.) J. Sm., Polycampium hastatum (Thunb.) C.Presl, Polypodium tricuspe Sw., Pyrrosia tricuspis (Sw.) Tagawa
+Pyrrosia heteractis (Mett. ex Kuhn) Ching (1935) - synonymes : Niphobolus heteractis (Mett. ex Kuhn) J.Sm., Polypodium heteractis Mett. ex Kuhn, Pyrrosia lingua var. heteracta (Mett. ex Kuhn) Hovenkamp
 Pyrrosia heteractis var. minor (C.Chr.) Ching
-Pyrrosia heterophylla (L.) M.G.Price (1974) - synonymes : Acrostichum heterophyllum L.[12], Candollea heterophylla (L.) Mirb., Cyclophorus heterophyllus (L.) Desv., Cyclophorus spissus (Bory ex Willd.) Desv., Drymoglossum heterophyllum (L.) C.Chr., Niphobolus heterophyllus (L.) Spreng., Niphobolus spissus (Bory ex Willd.) Spreng., Polypodium spissum Bory ex Willd.[13]
-Pyrrosia intermedia (Goy) K.H.Shing (1983) - synonyme : Cyclophorus intermedius Goy[14]
+Pyrrosia heterophylla (L.) M.G.Price (1974) - synonymes : Acrostichum heterophyllum L., Candollea heterophylla (L.) Mirb., Cyclophorus heterophyllus (L.) Desv., Cyclophorus spissus (Bory ex Willd.) Desv., Drymoglossum heterophyllum (L.) C.Chr., Niphobolus heterophyllus (L.) Spreng., Niphobolus spissus (Bory ex Willd.) Spreng., Polypodium spissum Bory ex Willd.
+Pyrrosia intermedia (Goy) K.H.Shing (1983) - synonyme : Cyclophorus intermedius Goy
 Pyrrosia jaintensis (C.B.Clarke) Ching (1983) : voir Pyrrosia laevis (J.Sm. ex Bedd.) Ching
 Pyrrosia kinabaluensis Hovenkamp (1984)
 Pyrrosia laevis (J.Sm. ex Bedd.) Ching (1935) - synonymes :  Cyclophorus laevis (J. Sm. ex Bedd.) C.Chr., Niphobolus laevis J. Sm. ex Bedd., Polypodium breve J.Sm. ex Baker, Polypodium jaintense C.B.Clarke, Polypodium laeve (J. Sm. ex Bedd.) Mett. ex Kuhn, Pyrrosia jaintensis (C.B.Clarke) Ching
-Pyrrosia lanceolata (L.) Farw. (1931) - synonymes : Acrostichum dubium Poir., Acrostichum lanceolatum L., Candollea lanceolata (L.) Mirb., Cyclophorus dimorphus Copel., Cyclophorus nudus (Giesenh.) C.Chr., Cyclophorus lanceolatus (L.) Alston, Cyclophorus varius (Kaulf.) Gaudich., Nipholobus lanceolatus (L.) Trimen (avec un homonyme Nipholobus lanceolatus (L.) Keyserl. mais issu du basionyme Polypodium lanceolatum L.), Niphobolus nudus Giesenh., Niphobolus varius Kaulf., Polypodium varium (Kaulf.) Mett., Pyrrosia nuda (Giesenh.) Ching, Pyrrosia varia (Kaulf.) Farw.[15]
+Pyrrosia lanceolata (L.) Farw. (1931) - synonymes : Acrostichum dubium Poir., Acrostichum lanceolatum L., Candollea lanceolata (L.) Mirb., Cyclophorus dimorphus Copel., Cyclophorus nudus (Giesenh.) C.Chr., Cyclophorus lanceolatus (L.) Alston, Cyclophorus varius (Kaulf.) Gaudich., Nipholobus lanceolatus (L.) Trimen (avec un homonyme Nipholobus lanceolatus (L.) Keyserl. mais issu du basionyme Polypodium lanceolatum L.), Niphobolus nudus Giesenh., Niphobolus varius Kaulf., Polypodium varium (Kaulf.) Mett., Pyrrosia nuda (Giesenh.) Ching, Pyrrosia varia (Kaulf.) Farw.
 Pyrrosia lanuginosa (Giesenh.) Copel. (1960 ) - synonymes : Cyclophorus lanuginosus (Giesenh.) C.Chr., Niphobolus lanuginosus Giesenh.
 Pyrrosia latifolia Ching &amp; S.K.Wu (1983) : voir Pyrrosia fengiana Ching
 Pyrrosia lauterbachii (Christ) Ching (1935) : voir Pyrrosia foveolata var. lauterbachii (Christ) Hovenkamp
@@ -688,7 +708,7 @@
 Pyrrosia linearifolia (Hook.) Ching (1935) - synonymes : Cyclophorus linearifolius (Hook.) C.Chr., Neoniphopsis linearifolia (Hook.) Nakai, Niphobolus linearifolius Hook., Polypodium linearifolium (Hook.) Hook.
 Pyrrosia linearifolia var. heterolepis Tagawa (1949)
 Pyrrosia linearis Ching &amp; S.K.Wu (1983)
-Pyrrosia lingua (Thunb.) Farw. (1931) - synonymes : Acrotischum lingua Thunb.[16], Cyclophorus bodinieri H.Lév., Cyclophorus lingua (Thunb.) Desv., Cyclophorus lingua var. angustifrons Hayata, Cyclophorus lingua var. attenuata Rosenst., Cyclophorus martinii (Christ) C.Chr., Cyclophorus taiwanense (Christ) C.Chr., Niphobolus lingua (Thunb.) Spreng., Niphobolus martinii Christ, Polycampium lingua (Thunb.) C.Presl, Polypodium lingua (Thunb.) Sw., Polypodium taiwanense Christ, Pyrrosia caudifrons Ching, Boufford &amp; K.H.Shing, Pyrrosia martinii (Christ) Ching
+Pyrrosia lingua (Thunb.) Farw. (1931) - synonymes : Acrotischum lingua Thunb., Cyclophorus bodinieri H.Lév., Cyclophorus lingua (Thunb.) Desv., Cyclophorus lingua var. angustifrons Hayata, Cyclophorus lingua var. attenuata Rosenst., Cyclophorus martinii (Christ) C.Chr., Cyclophorus taiwanense (Christ) C.Chr., Niphobolus lingua (Thunb.) Spreng., Niphobolus martinii Christ, Polycampium lingua (Thunb.) C.Presl, Polypodium lingua (Thunb.) Sw., Polypodium taiwanense Christ, Pyrrosia caudifrons Ching, Boufford &amp; K.H.Shing, Pyrrosia martinii (Christ) Ching
 Pyrrosia lingua var. heteractis (Mett. ex Kuhn) Hovenkamp (1984) : voir Pyrrosia heteractis (Mett. ex Kuhn) Ching
 Pyrrosia longifolia (Burm.f.) C.V.Morton (1946) - synonymes : Acrostichum longifolium Burm.f., Candollea longifolia (Burm.f.) Mirb., Cyclophorus acrostichoides (G.Forst.) C.Presl, Cyclophorus acrostichoides var. backeri Alderw., Cyclophorus acrostichoides f. carnosa Alderw., Cyclophorus acrostichoides var. fissum (Blume) Bonap., Cyclophorus acrostichoides var. gracilis Copel., Cyclophorus cinnamomeus Alderw., Cyclophorus induratus Christ, Cyclophorus longifolius (Burm.f.) Desv., Cyclophorus macropodus (Baker) C.Chr., Cyclophorus scolopendrium Desv., Cyclophorus valleculosus Alderw., Gyrosorium fissum (Blume) C.Presl, Niphobolus acrostichoides (G.Forst.) Bedd., Niphobolus fissus Blume, Niphobolus longifolius (Burm.f.) Spreng., Niphobolus puberulus Blume, Niphobolus scolopendrium (Desv.) T.Moore, Polypodium acrostichoides G.Forst., Polypodium fissum (Blume) Baker, Polypodium macropodum Baker, Pyrrosia acrostichoides (G.Forst.) Ching, Pyrrosia coccideisquamata Gilli, Pyrrosia fissa (Blume) Mehra, Pyrrosia macropoda (Baker) Ching
 Pyrrosia macrocarpa (Copel.) K.H.Shing (1983) - synonyme : Cyclophorus macrocarpa Copel.
@@ -698,11 +718,11 @@
 Pyrrosia mannii var. birii P.C.Pande &amp; H.C.Pande (2003)
 Pyrrosia martinii (Christ) Ching (1965) : voir Pyrrosia lingua (Thunb.) Farw.
 Pyrrosia matsudai (Hayata) Tagawa (1949) - synonyme : Cyclophorus matsudai Hayata
-Pyrrosia mechowii (Brause &amp; Hieron. ex Hieron.) Alston (1954) : voir Pyrrosia schimperiana (Kuhn) Alston[17]
+Pyrrosia mechowii (Brause &amp; Hieron. ex Hieron.) Alston (1954) : voir Pyrrosia schimperiana (Kuhn) Alston
 Pyrrosia medogensis Ching &amp; S.K.Wu (1983)
-Pyrrosia micraster (Copel.) Tagawa (1949) - synonyme : Cyclophorus micraster Copel.[18]
+Pyrrosia micraster (Copel.) Tagawa (1949) - synonyme : Cyclophorus micraster Copel.
 Pyrrosia mollis (Kunze) Ching (1935) - synonymes : Cyclophorus mollis (Kunze) C.Presl, Niphobolus mollis Kunze
-Pyrrosia mollis f. alcicornu (Christ) Ching (1935) - synonyme : Cyclophorus alcicornu Christ[19]
+Pyrrosia mollis f. alcicornu (Christ) Ching (1935) - synonyme : Cyclophorus alcicornu Christ
 Pyrrosia mollis var. mollissima Ching (1935) : voir Pyrrosia porosa var. mollissima (Ching) K.H.Shing
 Pyrrosia mollis var. rhomboidalis (Bonap.) C.Chr. &amp; Tardieu-Blot (1939) : voir Pyrrosia rhomboidala (Bonap.) Ching
 Pyrrosia nanchuanensis Ching (1935) : voir Pyrrosia sheareri (Baker) Ching
@@ -714,18 +734,18 @@
 Pyrrosia nudicaulis Ching (1935) : voir Pyrrosia porosa (C.Presl) Hovenkamp
 Pyrrosia nummulariifolia (Sw.) Ching (1935) - synonymes : Acrostichum nummularifolium Sw., Cyclophorus nummularifolius (Sw.) C.Chr., Galeoglossa nummularifolia (Sw.) C.Presl, Galeoglossa rotundifolia (Fée) C.Presl, Gymnopteris nummulariifolia (Sw.) C.Presl, Niphobolus nummulariifolius (Sw.) J.Sm., Niphobolus rotundifolius Fée, Polypodium nummulariifolium (Sw.) Mett.
 Pyrrosia oblanceolata (C.Chr.) Tardieu in Humbert (1960) - synonyme : Cyclophorus oblanceolatus C.Chr.
-Pyrrosia oblonga Ching (1935)[20]
+Pyrrosia oblonga Ching (1935)
 Pyrrosia obovata (Blume) Ching (1935) - synonymes : Acrostichum obovatum Blume, Galeoglossa obovata (Blume) C.Presl, Niphobolus obovatus (Blume) Kunze, Polypodium obovatum (Blume) Mett.
 Pyrrosia pachyderma (Baker) Ching (1935) : voir Pyrrosia adnascens (Sw.) Ching
 Pyrrosia pannosa (Mett. ex Kuhn) Ching (1935) - synonymes :  Cyclophorus pannosus (Mett. ex Kuhn) C.Chr., Niphobolus pannosus (Mett. ex Kuhn) Bedd., Polypodium pannosum Mett. ex Kuhn
 Pyrrosia pekinensis (C.Chr.) Ching (1935) : voir Pyrrosia porosa (C.Presl) Hovenkamp
-Pyrrosia penangiana (Hook.) Holttum (1955) - synonymes : Cyclophorus penangianus (Hook.) C.Chr., Niphobolus penangianus Hook., Polycampium penangianum (Hook.) C.Presl, Polypodium penangianum (Hook.) Hook.[21]
+Pyrrosia penangiana (Hook.) Holttum (1955) - synonymes : Cyclophorus penangianus (Hook.) C.Chr., Niphobolus penangianus Hook., Polycampium penangianum (Hook.) C.Presl, Polypodium penangianum (Hook.) Hook.
 Pyrrosia petiolosa (Christ) Ching (1935) - synonymes : Cyclophorus petiolosus (Christ) C.Chr., Niphobolus petiolosa (Christ) Diels, Polypodium petiolosum Christ
 Pyrrosia philippinensis Copel. (1952) : voir Pyrrosia porosa (C.Presl) Hovenkamp
 Pyrrosia piloselloides (L.) M.G.Price (1974) - synonymes : Drymoglossum piloselloides (L.) C.Presl, Drymoglossum rotundifolium C.Presl, Elaphoglossum piloselloides (L.) Keyserl., Lemmaphyllum piloselloides (L.) Luerss., Notholaena piloselloides (L.) Kaulf. ex Kaulf., Oetosis piloselloides (L.) Kuntze, Pteris piloselloides L., Pteropsis piloselloides (L.) Desv., Taenitis piloselloides (L.) R.Br.
 Pyrrosia platyphylla Hovenkamp (1984)
 Pyrrosia polydactyla (Hance) Ching (1935) - synonymes : Cyclophorus polydactylus (Hance) C.Chr., Niphobolus polydactylon (Hance) Giesenh. ex Diels, Polypodium polydactylon Hance, Pyrrosia × pseudopolydactylis Seriz.
-Pyrrosia porosa (C.Presl) Hovenkamp (1984) - synonymes : Cyclophorus acrocarpus (Christ &amp; Giesenh.) C.Chr., Cyclophorus davidii (Baker) H.Lév., Cyclophorus gralla (Giesenh.) C.Chr., Cyclophorus malacophyllus C.Chr., Cyclophorus pekinensis C.Chr., Cyclophorus pekinensis f. minor C.Chr., Cyclophorus porosus (C.Presl) C.Presl, Cyclophorus stenophyllus (Bedd.) C.Chr., Cyclophorus sticticus (Kunze) C.Chr., Cyclophorus subfissus Hayata, Cyclophorus xiphioides (Christ) C.Chr., Niphobolus acrocarpus Christ &amp; Giesenh., Niphobolus davidii (Baker) Giesenh. ex Diels, Niphobolus gralla Giesenh., Niphobolus porosus C.Presl, Niphobolus stenophyllus (Bedd.) Giesenh., Niphobolus sticticus Kunze, Niphobolus xiphioides Christ, Polypodium davidii Baker, Polypodium porosum Wall., Polypodium porosum (C.Presl) Mett., Polypodium sticticum (Kunze) Mett., Pyrrosia davidii (Baker) Ching, Pyrrosia nayariana Ching &amp; P.Chandra, Pyrrosia nudicaulis Ching, Pyrrosia pekinensis (C.Chr.) Ching, Pyrrosia stictica (Kunze) Holttum, Pyrrosia subfissa (Hayata) Ching[22]
+Pyrrosia porosa (C.Presl) Hovenkamp (1984) - synonymes : Cyclophorus acrocarpus (Christ &amp; Giesenh.) C.Chr., Cyclophorus davidii (Baker) H.Lév., Cyclophorus gralla (Giesenh.) C.Chr., Cyclophorus malacophyllus C.Chr., Cyclophorus pekinensis C.Chr., Cyclophorus pekinensis f. minor C.Chr., Cyclophorus porosus (C.Presl) C.Presl, Cyclophorus stenophyllus (Bedd.) C.Chr., Cyclophorus sticticus (Kunze) C.Chr., Cyclophorus subfissus Hayata, Cyclophorus xiphioides (Christ) C.Chr., Niphobolus acrocarpus Christ &amp; Giesenh., Niphobolus davidii (Baker) Giesenh. ex Diels, Niphobolus gralla Giesenh., Niphobolus porosus C.Presl, Niphobolus stenophyllus (Bedd.) Giesenh., Niphobolus sticticus Kunze, Niphobolus xiphioides Christ, Polypodium davidii Baker, Polypodium porosum Wall., Polypodium porosum (C.Presl) Mett., Polypodium sticticum (Kunze) Mett., Pyrrosia davidii (Baker) Ching, Pyrrosia nayariana Ching &amp; P.Chandra, Pyrrosia nudicaulis Ching, Pyrrosia pekinensis (C.Chr.) Ching, Pyrrosia stictica (Kunze) Holttum, Pyrrosia subfissa (Hayata) Ching
 Pyrrosia porosa var. mollissima (Ching) K.H.Shing (1993) - synonymes : Polypodium mollissimum Christ (homonyme illégal de Polypodium mollissimum Fée), Pyrrosia mollis var. mollissima Ching
 Pyrrosia porosa var. stenophylla (Bedd.) Hovenkamp (1984) - synonymes : Niphobolus fissus var. stenophyllus Bedd., Pyrrosia stenophylla (Bedd.) Ching, Pyrrosia tibetica Ching, Pyrrosia tibetica var. angustata Ching
 Pyrrosia porosa var. tonkinensis (Giesenh.) Hovenkamp (1984) - synonymes : Cyclophorus tonkinensis (Giesenh.) C.Chr., Niphobolus tonkinensis Giesenh., Pyrrosia tonkinensis (Giesenh.) Ching
@@ -735,14 +755,14 @@
 Pyrrosia × pseudopolydactylis Seriz. (1970) : voir Pyrrosia polydactyla (Hance) Ching
 Pyrrosia rasamalae (Racib.) K.H.Shing (1983) - synonymes : Cyclophorus rasamalae (Racib.) C.Chr., Niphobolus rasamalae (Racib.) Giessenh., Polypodium rasamalae Racib.
 Pyrrosia rhodesiana (C.Chr.) Schelpe (1952.) - synonyme : Cyclophorus rhodesianus C.Chr.
-Pyrrosia rhomboidala (Bonap.) Ching (1935) (Qin Renchang avait mal accordé l'épithète spécifique : rhomboidalis) - synonymes : Cyclophorus rhomboidalis Bonap., Pyrrosia mollis var. rhomboidalis (Bonap.) C.Chr. &amp; Tardieu[23]
+Pyrrosia rhomboidala (Bonap.) Ching (1935) (Qin Renchang avait mal accordé l'épithète spécifique : rhomboidalis) - synonymes : Cyclophorus rhomboidalis Bonap., Pyrrosia mollis var. rhomboidalis (Bonap.) C.Chr. &amp; Tardieu
 Pyrrosia rupestris (R.Br.) Ching (1935) - synonymes : Craspedaria rupestris (R.Br.) Link, Cyclophorus rupestris (R.Br.) C.Chr., Niphobolus rupestris (R.Br.) Giessenh., Polypodium rupestre R.Br.
 Pyrrosia samarensis (C.Presl) Ching (1935) - synonymes : Cyclophorus samarensis (C.Presl) C.Chr., Gyrosorium samarense C.Presl, Niphobolus samarensis (C.Presl) Fée, Polypodium samarense (C.Presl) Mett.
 Pyrrosia schimperiana (Mett. ex Kuhn) Alston (1934) - synonymes : Cyclophorus mechowii Brause &amp; Hieron. ex Hieron.,Cyclophorus schimperianus (Mett. ex Kuhn) C.Chr., Niphobolus mechowii Brause &amp; Hieron. ex Hieron., Niphobolus schimperianum (Mett. ex Kuhn) Giessenh., Polypodium schimperianum Mett. ex Kuhn, Pyrrosia mechowii (Brause &amp; Hieron. ex Hieron.) Alston
 Pyrrosia schimperiana var. liebuschii (Hieron.) Hovenkamp (1984) - synonymes : Cyclophorus liebuschii Hieron, Niphobolus libesuchii (Hieron) Peter, Pyrrosia liebuschii (Hieron.) Schelpe
 Pyrrosia schimperiana var. mechowii (Brause &amp; Hieron. ex Hieron.) Schelpe
-Pyrrosia scolopendrina (Bory) Ching ((1941) - synonymes : Cyclophorus scolopendrium (Bory) Desv., Pteris scolopendrina Bory, Pteropsis scolopendrina (Bory) Desv., Vittaria scolopendrina (Bory) Mett. (homonyme : Vittaria scolopendrina (Bory) Schkuhr ex Thwaites)[24]
-Pyrrosia serpens (G.Forst.) Ching (1935) (Ren Chang Ching avait mal accordé l'épithète spécifique : ce devrait être serpensis) - synonymes : Acrostichum bicolor (Kaulf.) Cav., Craspedaria serpens (G.Forst.) C.Presl, Cyclophorus serpens (G.Forst.) C.Chr., Niphobolus bicolor Kaulf., Polypodium bicolor (Kaulf.) Mett., Polypodium serpens G.Forst (non Sw.), Polypodium stoloniferum J.F.Gmel., Pyrrosia bicolor (Kaulf.) Ching[25]
+Pyrrosia scolopendrina (Bory) Ching ((1941) - synonymes : Cyclophorus scolopendrium (Bory) Desv., Pteris scolopendrina Bory, Pteropsis scolopendrina (Bory) Desv., Vittaria scolopendrina (Bory) Mett. (homonyme : Vittaria scolopendrina (Bory) Schkuhr ex Thwaites)
+Pyrrosia serpens (G.Forst.) Ching (1935) (Ren Chang Ching avait mal accordé l'épithète spécifique : ce devrait être serpensis) - synonymes : Acrostichum bicolor (Kaulf.) Cav., Craspedaria serpens (G.Forst.) C.Presl, Cyclophorus serpens (G.Forst.) C.Chr., Niphobolus bicolor Kaulf., Polypodium bicolor (Kaulf.) Mett., Polypodium serpens G.Forst (non Sw.), Polypodium stoloniferum J.F.Gmel., Pyrrosia bicolor (Kaulf.) Ching
 Pyrrosia sheareri (Baker) Ching (1935) - synonymes : Cyclophorus sheareri (Baker) C.Chr., Niphobolus sheareri (Baker) Diels, Polypodium sheareri Baker, Pyrrosia grandissima (Hayata) Ching
 Pyrrosia shennongensis K.H.Shing (1997)
 Pyrrosia similis Ching (1935)
@@ -761,7 +781,7 @@
 Pyrrosia tibetica var. angustata Ching : voir Pyrrosia porosa var. stenophylla (Bedd.) Hovenkamp
 Pyrrosia tonkinensis (Giesenh.) Ching (1935) : voir Pyrrosia porosa var. tonkinensis (Giesenh.) Hovenkamp
 Pyrrosia transmorrisonensis (Hayata) Ching (1935) - synonyme : Cyclophorus transmorrisonensis Hayata
-Pyrrosia tricholepis (Carruth.) Ching (1965) - synonyme : Niphobolus tricholepis Carruth. ex Seemann[26]
+Pyrrosia tricholepis (Carruth.) Ching (1965) - synonyme : Niphobolus tricholepis Carruth. ex Seemann
 Pyrrosia tricuspis (Sw.) Tagawa (1957)
 Pyrrosia varia Farw. (1931) : voir Pyrrosia lanceolata (L.) Farw.
 Pyrrosia winkleri (Rosenst.) Tagawa (1973) - synonyme : Cyclophorus winkleri Rosenst.
@@ -793,25 +813,27 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles François Brisseau de Mirbel décrit une première fois le genre sans type[27]. Il établit le type à partir d'un exemplaire de Chine : Pyrrosia chinensis, dans le volume 5 (même année). Le nom du genre est tiré de πυρρόσ, couleur brun roux en grec[28].
-En 1811, Nicaise Auguste Desvaux crée le genre Cyclophorus, dont la très grande majorité des espèces sont maintenant dans le genre Pyrrosia. Il y place six espèces : Cyclophorus adnescens (Sw.) Desv., Cyclophorus heterophyllus (L.) Desv., Cyclophorus spissus (Bory ex Willd.) Desv., Cyclophorus longifolius (Burm.f) Desv., Cyclophorus stigmosus (Sw.) Desv. et Cyclophorus glaber Desv. Il cite aussi quatre espèces du genre Polypodium déterminées par Olof Peter Swartz - Polypodium angustatum Sw., Polypodium lingua (Thunb.) Sw. Polypodium polycarpon Sw. et Polypodium tricuspe Sw. - comme devant y être classées ce qu'il réalisera dans les Annales de la société linnéenne de Paris en 1813[29].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles François Brisseau de Mirbel décrit une première fois le genre sans type. Il établit le type à partir d'un exemplaire de Chine : Pyrrosia chinensis, dans le volume 5 (même année). Le nom du genre est tiré de πυρρόσ, couleur brun roux en grec.
+En 1811, Nicaise Auguste Desvaux crée le genre Cyclophorus, dont la très grande majorité des espèces sont maintenant dans le genre Pyrrosia. Il y place six espèces : Cyclophorus adnescens (Sw.) Desv., Cyclophorus heterophyllus (L.) Desv., Cyclophorus spissus (Bory ex Willd.) Desv., Cyclophorus longifolius (Burm.f) Desv., Cyclophorus stigmosus (Sw.) Desv. et Cyclophorus glaber Desv. Il cite aussi quatre espèces du genre Polypodium déterminées par Olof Peter Swartz - Polypodium angustatum Sw., Polypodium lingua (Thunb.) Sw. Polypodium polycarpon Sw. et Polypodium tricuspe Sw. - comme devant y être classées ce qu'il réalisera dans les Annales de la société linnéenne de Paris en 1813.
 En 1824, Georg Friedrich Kaulfuss crée le genre Niphobolus où il range toutes les espèces du genre Cyclophorus ; la très grande majorité des espèces classées dans ce genre sont maintenant dans le genre Pyrrosia.
-En 1849, Karel Bořivoj Presl décrit plusieurs genres[30] : 
+En 1849, Karel Bořivoj Presl décrit plusieurs genres : 
 Apalophlebia (p. 137-139 de Epimeliae botanicae) avec quatre espèces (Apalphlebia costata (Wall. ex C. Presl) C. Presl, Apalophlebia flocculosa (D.Don) C.Presl, Apalophlebia splendens (J.Sm.) C.Presl et Apalophlebia venosa (Blume) C.Presl)
 Gyrosorium (p. 139-141 de Epimeliae botanicae) avec quatre espèces (Gyrosorium africanum (Kunze) C.Presl, Gyrosorium angustatum (Sw.) C.Presl, Gyrosorium fissum (Blume) C.Presl et Gyrosorium samarense C.Presl)
 Polycampium (p. 135-137 de Epimeliae botanicae) avec trois espèces (Polycampium lingua (Thunb.) C.Presl, Polycampium penangianum (Hook.) C.Presl et Polycampium hastatum (Thunb.) C.Presl)
 Sphaerostichum (p. 134-135  de Epimeliae botanicae) avec deux espèces (Sphaerostichum abbreviatum (Zoll. &amp; Moritzi) C.Presl et Sphaerostichum acrostichoides (J.Sm.) C.Presl)
 Toutes les espèces classées dans ces genres sont actuellement dans le genre Pyrrosia : il s'agit donc de genres entièrement synonymes.
 Dans le même ouvrage, il place plusieurs espèces dans le genre Cyclophorus Desv.
-En 1857, Georg Heinrich Mettenius replace dans le genre Polypodium la totalité des espèces des genres Cyclophorus, Niphobolus et Pyrrosia[31]. Ce travail, très documenté de Mettenius même si son reclassement a été totalement remis en cause, est complètement ignoré des index The Plant List et Tropicos. 
-La même année, John Smith créé le genre Niphopsis avec une seule espèce : Niphopsis angustatus (Sw.) J.Sm., synonyme de Pyrrosia angustata (Sw.) Ching[32].
-En 1863, William Jackson Hooker place toutes les espèces des genres Cyclophorus et Niphobolus dans le sous-genre Niphobolus (Kaulf.) Hook. du genre Polypodium[33].
-En 1901, Karl Friedrich Georg Giesenhagen publie une monographie très complète du genre Niphobolus dont toutes les espèces sont maintenant reclassées dans le genre Pyrrosia[34].
+En 1857, Georg Heinrich Mettenius replace dans le genre Polypodium la totalité des espèces des genres Cyclophorus, Niphobolus et Pyrrosia. Ce travail, très documenté de Mettenius même si son reclassement a été totalement remis en cause, est complètement ignoré des index The Plant List et Tropicos. 
+La même année, John Smith créé le genre Niphopsis avec une seule espèce : Niphopsis angustatus (Sw.) J.Sm., synonyme de Pyrrosia angustata (Sw.) Ching.
+En 1863, William Jackson Hooker place toutes les espèces des genres Cyclophorus et Niphobolus dans le sous-genre Niphobolus (Kaulf.) Hook. du genre Polypodium.
+En 1901, Karl Friedrich Georg Giesenhagen publie une monographie très complète du genre Niphobolus dont toutes les espèces sont maintenant reclassées dans le genre Pyrrosia.
 En 1905, dans Index filicum (en référence), Carl Frederik Albert Christensen fait le choix du genre Cyclophorus Desv. pour toutes les espèces du genre Niphobolus, espèces maintenant toutes placées dans le genre Pyrrosia.
-En 1908, Cornelis Rugier Willem Karel van Alderwerelt van Rosenburgh crée deux sections du genre Cyclophorus : Niphobolus et Niphopsis[35]. Ces deux sections correspondent aux deux sous-genres établis par Ren Chang Ching et Kung Hsia Shing.
-En 1935, Ren Chang Ching publie une révision entière du genre avec le reclassement généralisé des espèces du genre Cyclophorus dans le genre Pyrrosia[36]
+En 1908, Cornelis Rugier Willem Karel van Alderwerelt van Rosenburgh crée deux sections du genre Cyclophorus : Niphobolus et Niphopsis. Ces deux sections correspondent aux deux sous-genres établis par Ren Chang Ching et Kung Hsia Shing.
+En 1935, Ren Chang Ching publie une révision entière du genre avec le reclassement généralisé des espèces du genre Cyclophorus dans le genre Pyrrosia
 En 1983, Kung Hsia Shing, avec Ren Chang Ching, publie une refonte complète du genre (en référence). En particulier, ils en clarifient les subdivisions avec la hiérarchie suivante :
 sous-genre Pyrrosia- type Pyrrosia lingua (Thunb.) Farw.
 section Pyrrosia- type Pyrrosia lingua (Thunb.) Farw.
